--- a/Newfolder/dsr/data/form_data.xlsx
+++ b/Newfolder/dsr/data/form_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/New folder/dsr/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_2B59D2BFD3805C1F87DA2D115902D8B75085FAF5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{619FF629-257A-4119-BF88-F1DB7A75E972}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_2B59D2BFD3805C1F87DA2D115902D8B75085FAF5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDD11546-3DE6-4099-99E8-BA8760B9EA18}"/>
   <bookViews>
     <workbookView xWindow="28455" yWindow="345" windowWidth="21960" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <si>
     <t>Email Address</t>
   </si>
@@ -76,12 +76,6 @@
     <t>ethan.mitchell@mailinator.com</t>
   </si>
   <si>
-    <t>Ethan</t>
-  </si>
-  <si>
-    <t>Mitchell</t>
-  </si>
-  <si>
     <t>11/8/2004</t>
   </si>
   <si>
@@ -113,6 +107,27 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Opt out of search</t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>ruba</t>
+  </si>
+  <si>
+    <t>kiran</t>
+  </si>
+  <si>
+    <t>kayal</t>
+  </si>
+  <si>
+    <t>gee</t>
+  </si>
+  <si>
+    <t>kanna</t>
   </si>
 </sst>
 </file>
@@ -477,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,49 +578,49 @@
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="E2" s="2">
         <v>5712345572</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -613,42 +628,86 @@
         <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="E3" s="2">
         <v>5712345572</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="K3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5712345572</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>29</v>
       </c>
     </row>

--- a/Newfolder/dsr/data/form_data.xlsx
+++ b/Newfolder/dsr/data/form_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_2B59D2BFD3805C1F87DA2D115902D8B75085FAF5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDD11546-3DE6-4099-99E8-BA8760B9EA18}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="11_2B59D2BFD3805C1F87DA2D115902D8B75085FAF5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B56A1192-68F8-4BD9-BED8-8CF4D08755D2}"/>
   <bookViews>
     <workbookView xWindow="28455" yWindow="345" windowWidth="21960" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
   <si>
     <t>Email Address</t>
   </si>
@@ -128,6 +128,15 @@
   </si>
   <si>
     <t>kanna</t>
+  </si>
+  <si>
+    <t>amur</t>
+  </si>
+  <si>
+    <t>radha</t>
+  </si>
+  <si>
+    <t>Remove my parent's cc information</t>
   </si>
 </sst>
 </file>
@@ -184,12 +193,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,6 +723,50 @@
         <v>29</v>
       </c>
     </row>
+    <row r="5" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5712345572</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Newfolder/dsr/data/form_data.xlsx
+++ b/Newfolder/dsr/data/form_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_2B59D2BFD3805C1F87DA2D115902D8B75085FAF5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B56A1192-68F8-4BD9-BED8-8CF4D08755D2}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="11_2B59D2BFD3805C1F87DA2D115902D8B75085FAF5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF45DAEA-5A39-4359-A5CD-EACC3A204664}"/>
   <bookViews>
     <workbookView xWindow="28455" yWindow="345" windowWidth="21960" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="42">
   <si>
     <t>Email Address</t>
   </si>
@@ -137,6 +137,15 @@
   </si>
   <si>
     <t>Remove my parent's cc information</t>
+  </si>
+  <si>
+    <t>Close/deactivate/cancel my College Board account</t>
+  </si>
+  <si>
+    <t>Student account (if any)</t>
+  </si>
+  <si>
+    <t>Educator data (if any)</t>
   </si>
 </sst>
 </file>
@@ -193,14 +202,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,9 +539,9 @@
     <col min="12" max="12" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.7109375" style="2" customWidth="1"/>
     <col min="16" max="16" width="18.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.42578125" style="2" customWidth="1"/>
     <col min="18" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -586,188 +599,253 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>5712345572</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="K2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>5712345572</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="2" t="s">
+      <c r="K3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>5712345572</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="2" t="s">
+      <c r="K4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>5712345572</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="3" t="s">
+      <c r="K5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3">
+        <v>5712345572</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N18" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Newfolder/dsr/data/form_data.xlsx
+++ b/Newfolder/dsr/data/form_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="11_2B59D2BFD3805C1F87DA2D115902D8B75085FAF5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF45DAEA-5A39-4359-A5CD-EACC3A204664}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="11_2B59D2BFD3805C1F87DA2D115902D8B75085FAF5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6F1BE21-D0AC-42D3-838A-12853A704596}"/>
   <bookViews>
     <workbookView xWindow="28455" yWindow="345" windowWidth="21960" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="43">
   <si>
     <t>Email Address</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>Educator data (if any)</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -519,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,10 +798,10 @@
         <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>18</v>
